--- a/Examples/Resource/xlsx/Template_SalesDataGroup.xlsx
+++ b/Examples/Resource/xlsx/Template_SalesDataGroup.xlsx
@@ -1,65 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitCode\ds-excel-net\Source\Demos\ExamplesDemo\Examples\Resource\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1704" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="3636" yWindow="1116" windowWidth="25164" windowHeight="13704"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Sales Data</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Salesman</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
-    <t>ProductType</t>
-  </si>
-  <si>
-    <t>{{ds.Records.Area}}</t>
-  </si>
-  <si>
-    <t>{{ds.Records.Salesman}}</t>
-  </si>
-  <si>
-    <t>{{ds.Records.ProductType}}</t>
-  </si>
-  <si>
-    <t>{{ds.Records.Product}}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Business Name: </t>
+  </si>
+  <si>
+    <t>E-Commerce</t>
   </si>
   <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>{{ds.Records.Sales}}</t>
+    <t>Region's Sales</t>
+  </si>
+  <si>
+    <t>Category's Sales</t>
+  </si>
+  <si>
+    <t>Quarterly Results</t>
+  </si>
+  <si>
+    <t>{{=Sum(C15)}}</t>
+  </si>
+  <si>
+    <t>{{=Sum(C14)(C=A14)}}</t>
+  </si>
+  <si>
+    <t>Area {{(E=H)}}</t>
+  </si>
+  <si>
+    <t>{{=Sum(C14)(C=C12)}}</t>
+  </si>
+  <si>
+    <t>Q4 Sales</t>
+  </si>
+  <si>
+    <t>{{ds.Sales.Area(E=H)}}</t>
+  </si>
+  <si>
+    <t>{{ds.Sales.City(E=H)}}</t>
+  </si>
+  <si>
+    <t>{{ds.Sales.Revenue}}</t>
+  </si>
+  <si>
+    <t>{{ds.Sales.Name}}</t>
+  </si>
+  <si>
+    <t>{{ds.Sales.Category}}</t>
   </si>
 </sst>
 </file>
@@ -67,9 +77,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,21 +95,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,12 +196,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,56 +209,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1D4F5D"/>
+      <color rgb="FF1A4652"/>
+      <color rgb="FF0F282F"/>
+      <color rgb="FF215A69"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,6 +330,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1005681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>489311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="200025"/>
+          <a:ext cx="615156" cy="615156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1482725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>488373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1902C5A2-2CDB-E24F-93E5-EBF33A24376A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5626100" y="1066800"/>
+          <a:ext cx="1508125" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -193,39 +448,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,205 +559,408 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" customWidth="1"/>
-    <col min="2" max="2" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="D11:D13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>